--- a/biology/Biochimie/Elmer_McCollum/Elmer_McCollum.xlsx
+++ b/biology/Biochimie/Elmer_McCollum/Elmer_McCollum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elmer Verner McCollum (3 mars 1879 - 15 novembre 1967) était un biochimiste américain connu pour ses travaux sur l'influence du régime alimentaire sur la santé. Il est également connu pour avoir été le premier à utiliser les rats, aux États-Unis, dans les recherches nutritionnelles. Sa réputation a souffert d'une controverse posthume. Le magazine Time l'a appelé Dr. Vitamine. Sa règle était: «Mangez ce que vous voulez après avoir mangé ce que vous devriez».
 Vivant à une époque où les vitamines étaient inconnues, il a demandé et essayé de répondre aux questions: «Combien y a-t-il de produits alimentaires essentiels et quels sont-ils?» Lui et Marguerite Davis ont découvert la première vitamine, nommée A, en 1913. McCollum a également aidé à découvrir la vitamine B et la vitamine D et a travaillé sur l'effet des oligo-éléments dans l'alimentation.
@@ -514,7 +526,9 @@
           <t>Famille et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ancêtres de McCollum ont immigré aux États-Unis depuis l'Écosse en 1763. McCollum est né en 1879 dans une ferme du Kansas, Famille modeste ayant acquis de l'aisance.
 Poussé dans les études par sa mère, comme ses collatéraux, ils visitèrent l'Exposition universelle de 1893, à Chicago.
@@ -549,7 +563,9 @@
           <t>L'expérience de la céréale unique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le Wisconsin, McCollum est chargé d'analyser l'alimentation des vaches et le lait, le sang, les excréments et l'urine de l'animal pour la célèbre expérience mono-nutritionnelle, dirigée par le chef du département Stephen Babcock et son successeur Edwin B. Hart. L'expérience a duré quatre ans jusqu'en 1911.
 Babcock avait étudié pour son doctorat. à l'Université de Göttingen en Allemagne avant de travailler à la station d'expérimentation agricole de l'État de New York, puis de rejoindre le personnel du Wisconsin. À cette époque, les chimistes allemands essayaient de créer les aliments parfaits pour les animaux de la ferme. En raison des découvertes de Justus von Liebig et d'autres, ils pensaient que tout aliment contenant une quantité déterminée de protéines, de glucides, de graisses, de sels et d'eau était équivalent à tout autre. Babcock ne les croyait pas et plaisantait avec ses collègues allemands en disant que les vaches pouvaient survivre avec du charbon et du cuir broyé selon leurs calculs.
@@ -587,7 +603,9 @@
           <t>La colonie de rats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cherchant à comprendre, McCollum se procura les 37 volumes du Rapport annuel sur les progrès de la chimie animale de Richard Maly où il put suivre environ 13 expériences effectuées entre 1873 et 1906 sur de petits animaux, souvent des souris, nourris avec des régimes restreints. Dans tous les cas, les animaux n'ont pas réussi à se développer et sont morts en quelques semaines.
 McCollum a compris qu'il devait découvrir ce qui manquait dans leur alimentation purifiée, et qu'il avait besoin d'expérimenter sur des animaux ayant une courte durée de vie. Il choisit les rats.
@@ -621,7 +639,9 @@
           <t>Découverte de la vitamine A</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était encore responsable du soin des génisses jusqu'en 1911, et le soin et l'alimentation de ses rats incombaient à une aide en grande partie bénévole, Marguerite Davis, une étudiante en économie domestique devenue biochimiste qui les veillait quotidiennement 
 Davis a aidé McCollum à développer "la méthode biologique pour l'analyse des aliments" et ils ont co-écrit un certain nombre d'articles.
@@ -659,7 +679,9 @@
           <t>Découverte de la vitamine B</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la question du béribéri et du problème du riz décortiqué, Christiaan Eijkman et Gerrit Grijns essayaient de trouver la cause de la polynévrite, influencés par Louis Pasteur. ils pensaient à une cause infectieuse.
 Mais les expériences de McCollum et Davis conduisirent à la découverte que la substance anti-neuritique d'Eijkman et de Grijns était la même que leur facteur B (vitamines B) hydrosoluble en 1915.
@@ -697,7 +719,9 @@
           <t>Mc Collum à la Johns Hopkins</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1917, la Fondation Rockefeller établit un nouveau département d'hygiène chimique à l'Université Johns Hopkins pour des scientifiques non médecin travaillant dans des stations d'expérimentation agricole. McCollum s'est vu offrir la présidence et un poste de professeur, ce qui bousculait les hiérarchies en place.
 McCollum a été élu membre de l'Académie nationale des sciences en 1920. Il est devenu professeur émérite en 1945.
@@ -731,13 +755,15 @@
           <t>Découverte de la vitamine D</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En conversation avec John Howland, un pédiatre de Johns Hopkins, et plus tard avec les médecins Edwards A. Park et Paul G. Shipley, ils ont découvert que le rachitisme pouvait être induit par le régime. 
 Les recherches de McCollum au début des années 1920 ont révélé que les rats pouvaient développer le rachitisme lorsqu'ils étaient nourris avec un régime à base de céréales. Son groupe a testé plus de 300 régimes sur des rats, et a finalement découvert que l'huile de foie de morue pouvait prévenir le rachitisme. S'appuyant sur les travaux d'Edward Mellanby, qui avaient été inspirés par la découverte de la vitamine A par McCollum et Davis, McCollum a nourri les animaux avec de l'huile de foie de morue chauffée et aérée afin que sa vitamine A soit détruite. L'huile ne pouvait plus guérir la cécité nocturne, mais guérissait le rachitisme. Après le rétablissement de ses rats, il nomma la substance avec lettre suivante de l'alphabet, la vitamine D.
 Puis ils furent convaincus que le soleil et l'huile de foie de morue protégeaient tous deux contre le rachitisme et le testèrent en transportant des rats à l'extérieur au soleil.
 Des générations d'enfants allaient grandir avec de l'huile de foie de morue et le rachitisme fut pratiquement anéanti.
-McCollum a donc joué un grand rôle dans la découverte de la Vitamine D, bien que ce ne soit pas lui qui ait reçu le prix nobel pour cela[1].
+McCollum a donc joué un grand rôle dans la découverte de la Vitamine D, bien que ce ne soit pas lui qui ait reçu le prix nobel pour cela.
 </t>
         </is>
       </c>
@@ -766,7 +792,9 @@
           <t>Liens avec l'industrie laitière</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme ses prédécesseurs au Wisconsin, McCollum était toujours attentif à l'industrie laitière. Sur sa suggestion, le Conseil national des produits laitiers a été formé en 1915. À la Johns Hopkins, il était le chef du laboratoire de recherche de la National Dairy Products Corporation et y a servi comme consultant, une heure par jour et un soir par semaine. National Dairy est devenu Kraft Foods Inc et est aujourd'hui connu sous le nom de Mondelez International et Kraft Heinz. Une publicité pour les préparations pour nourrissons Formulac a été publiée dans le Journal of the Indiana State Medical Association en 1947. Développée par McCollum et commercialisée par Kraft Foods, Inc., la formule de lait concentré contenait toutes les vitamines connues nécessaires à une «nutrition infantile adéquate».
 McCollum voulait que le lait soit enrichi en vitamine D. Aujourd'hui, le site Web du National Dairy Council accueille les chercheurs, disant que c'est McCollum "qui a fait le premier lien scientifique entre les produits laitiers et la bonne santé".
@@ -800,13 +828,15 @@
           <t>Influence de Mc Collum</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a donné les conférences Harvey en 1917.
 Le manuel de McCollum, The Newer Knowledge of Nutrition (1918), a influencé de nombreux diététitiens et est passé par de multiples éditions co-rédigées par Nina Simmonds et Elsa Orent-Keiles. Dans ce livre, il a présenté son idée des «aliments protecteurs». Il a écrit que le régime américain était de mauvaise qualité parce qu'il contenait trop de "farine blanche ou de semoule de maïs, de viande musculaire, de pommes de terre et de sucre". Il a encouragé un litre de lait par jour et beaucoup de légumes verts à feuilles. Sans surprise, McCollum a également promu le lacto-végétarisme. La cinquième et dernière édition de son manuel parut en 1939. Sous le titre "Our Daily Diet", entre 1922 et 1946 McCollum a écrit environ 160 colonnes pour le magazine McCall. McCollum était le rédacteur en chef pour la nutrition des magazines McCall's and Parents. Il faisait partie des comités de rédaction du Journal of Nutrition, du Journal of Biological Chemistry et de Nutrition Reviews.
 Longtemps intéressé par l'effet du régime sur les dents, McCollum a reçu des médailles des sociétés dentaires du Connecticut et de l'Ohio et a été membre de la société de New York ainsi que membre honoraire de l'American Academy of Dental Medicine.
 Son article "L'effet des additions de fluor au régime alimentaire du rat sur la qualité des dents" (1925) décrit comment un excès de fluor affecterait négativement la santé dentaire chez les rats. Néanmoins, McCollum deviendrait plus tard un partisan de la fluoration de l'eau, car le débat évolua.
-En 1938, le US Public Health Service a rapporté que l'ajout de fluorure à l'eau potable entraînait une diminution des caries dentaires. McCollum a été le modérateur de "La cause et la prévention des caries dentaires", parrainé par le Good Teeth Council for Children, Inc., ce même mois. Son article de 1941 «Diet in Relation to Dental Caries» [49] affirmait que la mastication vigoureuse exerce les dents pour conserver une santé optimale, que la mastication des aliments a un effet détergent et que «l'action protectrice d'un excès de graisse dans l'alimentation peut être due au graissage de la surface de la dent et la surface de la cavité bucale ".
+En 1938, le US Public Health Service a rapporté que l'ajout de fluorure à l'eau potable entraînait une diminution des caries dentaires. McCollum a été le modérateur de "La cause et la prévention des caries dentaires", parrainé par le Good Teeth Council for Children, Inc., ce même mois. Son article de 1941 «Diet in Relation to Dental Caries»  affirmait que la mastication vigoureuse exerce les dents pour conserver une santé optimale, que la mastication des aliments a un effet détergent et que «l'action protectrice d'un excès de graisse dans l'alimentation peut être due au graissage de la surface de la dent et la surface de la cavité bucale ".
 En tant que nouveau membre du Food and Nutrition Board, McCollum a participé à la décision en 1941 d'enrichir le pain et la farine avec de la thiamine, de la niacine et du fer. McCollum a critiqué la décision; tout en convenant que le pain blanc a des carences nutritionnelles, il a estimé que cette action ne compensait pas tous les éléments nutritifs qui sont éliminés par la mouture. Dans la controverse qui a suivi, le statut de McCollum a été rétrogradé de "membre du conseil" à "membre du panel" et il n'a plus été invité aux réunions du conseil. Pendant des années, il a continué à penser que son propre plan d'ajout de «solides non gras du lait, de levure de bière et de germes de blé et de maïs» était supérieur au plan adopté.
 Comme il est devenu un personnage public, McCollum a souvent donné des conférences, dont certaines ont été mentionnées dans la presse. En 1932, il a déclaré à l'Académie de médecine de New York que, lorsque les mères rats étaient privées de vitamine B, leurs petits étaient environ «deux fois moins rapides en vigilance mentale» que les jeunes rats dont les mères n'étaient pas privées de vitamine B.
 En 1934, il a déclaré au New York Times: «Nous avons prouvé la nécessité du [magnésium] dans la nourriture humaine, mais en très petites quantités. Trop aboutit à un dopage. Je dirais que vous ne pouvez pas avoir une diète correcte sans magnésium, mais cela ne prouve pas que vous en aurez encore une avec trop de magnésium. "
@@ -840,7 +870,9 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa vocation nutritionnelle lui a peut-être été inspirée par les récits famigliaux sur le scorbut dont il a été atteint très très jeune et comment sa mère l'en a guéri par tatonnement et observation. Il a eu plus tard beaucoup de problèmes de santé (dents, diverticules et opérations, problème de rétine) ce qui ne l'a pas empêché de vivre 23 ans de retraite lucide, après 1944.
 </t>
@@ -871,7 +903,9 @@
           <t>Retraite</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Il écrit son autobiographie et participe à des fonds de bourses pour des étudiants.
 Alors qu'il travaillait avec Olaf S. Rask dix ans avant sa retraite, McCollum a commencé à rechercher des moyens de séparer des acides aminés spécifiques des hydrolysats de protéines. À sa retraite, il a travaillé exclusivement sur ce projet.
